--- a/Luban/DataTables/Datas/monster/buff.xlsx
+++ b/Luban/DataTables/Datas/monster/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF355D37-8DDC-4A43-9DEE-0F2C3E4DC30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>##</t>
   </si>
@@ -215,10 +216,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>回合内无法行动，受到物理伤害翻倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Paralysis</t>
   </si>
   <si>
@@ -238,13 +235,25 @@
   </si>
   <si>
     <t>Combustion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合内无法行动，受到物理伤害+{0}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过1回合</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,7 +723,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -732,7 +741,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -752,7 +761,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -772,7 +781,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
@@ -789,7 +798,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -809,7 +818,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
@@ -829,7 +838,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>36</v>
@@ -841,16 +850,22 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/Luban/DataTables/Datas/monster/buff.xlsx
+++ b/Luban/DataTables/Datas/monster/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF355D37-8DDC-4A43-9DEE-0F2C3E4DC30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="3" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>##</t>
   </si>
@@ -222,38 +221,50 @@
     <t>Dampness</t>
   </si>
   <si>
+    <t>SlowDownIce</t>
+  </si>
+  <si>
+    <t>ShieldIce</t>
+  </si>
+  <si>
+    <t>Freezing</t>
+  </si>
+  <si>
+    <t>Combustion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合内无法行动，受到物理伤害+{0}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
     <t>ShieldEarth</t>
-  </si>
-  <si>
-    <t>SlowDownIce</t>
-  </si>
-  <si>
-    <t>ShieldIce</t>
-  </si>
-  <si>
-    <t>Freezing</t>
-  </si>
-  <si>
-    <t>Combustion</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合内无法行动，受到物理伤害+{0}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过1回合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过回合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡伤害,护盾存在时，物理伤害-{1}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,7 +752,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -780,57 +791,55 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -838,60 +847,77 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -906,6 +932,11 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Luban/DataTables/Datas/monster/buff.xlsx
+++ b/Luban/DataTables/Datas/monster/buff.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>##</t>
   </si>
@@ -170,31 +170,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>回合内无法行动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>每回合受到{0}点火伤害</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>抵挡伤害，护盾存在时对潮湿免疫</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -203,14 +182,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>受到雷属性效果则麻痹{0}回合，受到冰属性效果则冻结{1}回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵挡伤害，护盾存在时对攻击者造成{0}回合减速(冰)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>冻结</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -258,6 +229,59 @@
   </si>
   <si>
     <t>抵挡伤害,护盾存在时，物理伤害-{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时进行判定，若为{0}以下则该回合无法行动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡伤害，护盾存在时受到物理攻击则进行判定，{0}以下则造成减速(冰)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘缠绕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度降低{2}点,受到火焰伤害则转变为着火，回合数为两者最小值;若存在潮湿状态时，则合成为荆棘缠绕，回合数为两者的最大值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度降低{2}点,每回合受到{0}点伤害;该效果生效时,着火状态每回合不减少回合数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹无需判定必定生效，受到冰属性效果则合成为冻结，生效回合为两者的最小值;该效果生效时,缠绕和荆棘缠绕状态每回合不减少回合数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>致盲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击目标时进行判定，若为{0}以下则攻击丢失</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dizziness</t>
+  </si>
+  <si>
+    <t>Entanglement</t>
+  </si>
+  <si>
+    <t>Blinding</t>
+  </si>
+  <si>
+    <t>ThornyEntanglement</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +672,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,7 +682,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="52.5" customWidth="1"/>
+    <col min="6" max="6" width="70.375" customWidth="1"/>
     <col min="7" max="7" width="13.375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,7 +758,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -743,16 +767,18 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -764,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -772,7 +798,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -784,25 +810,23 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
         <v>-1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -810,7 +834,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -822,12 +846,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -839,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -847,7 +871,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -859,18 +883,18 @@
         <v>-1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -879,39 +903,81 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F17" s="3"/>
